--- a/document/Admin_Testcase.xlsx
+++ b/document/Admin_Testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Project\HCL\Book-Final\final\bookstore\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B54A23E-4DA2-42F6-94A9-56A07AB965A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A2DF83-6A07-48A9-8C5E-B761E7B92DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{65452611-5A25-4815-99BB-0250E95B3767}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{65452611-5A25-4815-99BB-0250E95B3767}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="163">
   <si>
     <t>Test  Cases  Report</t>
   </si>
@@ -462,6 +462,281 @@
   </si>
   <si>
     <t>An message "Delete User successfully:</t>
+  </si>
+  <si>
+    <t>UserName must be unique</t>
+  </si>
+  <si>
+    <t>input an existing username</t>
+  </si>
+  <si>
+    <t>Existing UserName: tungnt
+Input UserName: tungnt</t>
+  </si>
+  <si>
+    <t>An error message "The UserName is already accounted"</t>
+  </si>
+  <si>
+    <t>An message "Delete User successfully"</t>
+  </si>
+  <si>
+    <t>Data has been deleted in database</t>
+  </si>
+  <si>
+    <t>Book Management</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Delete confirmation</t>
+  </si>
+  <si>
+    <t>click Delete button on selected book</t>
+  </si>
+  <si>
+    <t>An confirm box "Are you sure to delete this book?"</t>
+  </si>
+  <si>
+    <t>click Yes in confirmation book</t>
+  </si>
+  <si>
+    <t>A message "Delete book successfully"</t>
+  </si>
+  <si>
+    <t>Book is deleted in database</t>
+  </si>
+  <si>
+    <t>Author Management</t>
+  </si>
+  <si>
+    <t>validation information</t>
+  </si>
+  <si>
+    <t>Author Name must not be blank</t>
+  </si>
+  <si>
+    <t>leave Author Name field blank</t>
+  </si>
+  <si>
+    <t>An error message "Please enter author name"</t>
+  </si>
+  <si>
+    <t>Author Name must be unique</t>
+  </si>
+  <si>
+    <t>input an existing name</t>
+  </si>
+  <si>
+    <t>Author Birth Year must not be blank</t>
+  </si>
+  <si>
+    <t>leave Author Birth Year field blank</t>
+  </si>
+  <si>
+    <t>An error message "Please enter author birth year"</t>
+  </si>
+  <si>
+    <t>Author Active Status must not be blank</t>
+  </si>
+  <si>
+    <t>leave Author Active Status field blank</t>
+  </si>
+  <si>
+    <t>An error message "Please enter author active status"</t>
+  </si>
+  <si>
+    <t>Description must not be blank</t>
+  </si>
+  <si>
+    <t>leave Description field blank</t>
+  </si>
+  <si>
+    <t>An error message "Please write some description for this author"</t>
+  </si>
+  <si>
+    <t>author Store</t>
+  </si>
+  <si>
+    <t>click Delete button on selected author</t>
+  </si>
+  <si>
+    <t>An confirm box "Are you sure to delete this author?"</t>
+  </si>
+  <si>
+    <t>A message "Delete author successfully"</t>
+  </si>
+  <si>
+    <t>author is deleted in database</t>
+  </si>
+  <si>
+    <t>An error message "This name has been accounted"</t>
+  </si>
+  <si>
+    <t>Create author successfully</t>
+  </si>
+  <si>
+    <t>An message "Create author successfully"</t>
+  </si>
+  <si>
+    <t>category Store</t>
+  </si>
+  <si>
+    <t>category Management</t>
+  </si>
+  <si>
+    <t>An error message "Please enter category name"</t>
+  </si>
+  <si>
+    <t>Create category successfully</t>
+  </si>
+  <si>
+    <t>An message "Create category successfully"</t>
+  </si>
+  <si>
+    <t>click Delete button on selected category</t>
+  </si>
+  <si>
+    <t>An confirm box "Are you sure to delete this category?"</t>
+  </si>
+  <si>
+    <t>A message "Delete category successfully"</t>
+  </si>
+  <si>
+    <t>Category Name must not be blank</t>
+  </si>
+  <si>
+    <t>Category is deleted in database</t>
+  </si>
+  <si>
+    <t>click Yes in confirmation box</t>
+  </si>
+  <si>
+    <t>leave Category Name field blank</t>
+  </si>
+  <si>
+    <t>publisher Store</t>
+  </si>
+  <si>
+    <t>publisher Management</t>
+  </si>
+  <si>
+    <t>An error message "Please enter publisher name"</t>
+  </si>
+  <si>
+    <t>An error message "Please enter publisher birth year"</t>
+  </si>
+  <si>
+    <t>An error message "Please enter publisher active status"</t>
+  </si>
+  <si>
+    <t>An error message "Please write some description for this publisher"</t>
+  </si>
+  <si>
+    <t>Create publisher successfully</t>
+  </si>
+  <si>
+    <t>An message "Create publisher successfully"</t>
+  </si>
+  <si>
+    <t>click Delete button on selected publisher</t>
+  </si>
+  <si>
+    <t>An confirm box "Are you sure to delete this publisher?"</t>
+  </si>
+  <si>
+    <t>click Yes in confirmation publisher</t>
+  </si>
+  <si>
+    <t>A message "Delete publisher successfully"</t>
+  </si>
+  <si>
+    <t>Publisher Name must not be blank</t>
+  </si>
+  <si>
+    <t>Publisher Name must be unique</t>
+  </si>
+  <si>
+    <t>Publisher Birth Year must not be blank</t>
+  </si>
+  <si>
+    <t>Publisher Active Status must not be blank</t>
+  </si>
+  <si>
+    <t>leave Publisher Name field blank</t>
+  </si>
+  <si>
+    <t>leave Publisher Birth Year field blank</t>
+  </si>
+  <si>
+    <t>leave Publisher Active Status field blank</t>
+  </si>
+  <si>
+    <t>Publisher is deleted in database</t>
+  </si>
+  <si>
+    <t>Order Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Status </t>
+  </si>
+  <si>
+    <t>validate information</t>
+  </si>
+  <si>
+    <t>Checking if quantity of item is less than quantity in stock</t>
+  </si>
+  <si>
+    <t>1. Click "Detail" of seleted order
+2. Click "Update Status"</t>
+  </si>
+  <si>
+    <t>A message "Okay" is displayed</t>
+  </si>
+  <si>
+    <t>Checking if quantity of item is more than quantity in stock</t>
+  </si>
+  <si>
+    <t>A message "Out of Stock" is displayed</t>
+  </si>
+  <si>
+    <t>Checking if quantity of item equals to quantity in stock</t>
+  </si>
+  <si>
+    <t>Edit Order Status successfully</t>
+  </si>
+  <si>
+    <t>1. Click "Detail" of seleted order
+2. Click "Update Status"
+3. Choose Status from status selected list 
+4. Click "Update Status"</t>
+  </si>
+  <si>
+    <t>A message "Edit Order 10003 successfully"</t>
+  </si>
+  <si>
+    <t>Order Number: 10003</t>
+  </si>
+  <si>
+    <t>Order Number: 10001
+Book id: 2
+Quantity in stock: 8
+Quantity in order : 8</t>
+  </si>
+  <si>
+    <t>Order Number: 10003
+Book id: 3
+Quantity in stock: 17
+Quantity in order : 1</t>
+  </si>
+  <si>
+    <t>Order Number: 10002
+Book id: 37
+Quantity in stock: 1
+Quantity in order : 3</t>
   </si>
 </sst>
 </file>
@@ -577,7 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -594,35 +869,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -639,8 +896,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -979,87 +1269,87 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1158,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024974DE-9D57-446A-A836-90D372D19428}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,88 +1469,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="17"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="19" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="20"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="19" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="20"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1477,19 +1767,82 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="E16" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E17" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>75</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E18" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="H18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1506,110 +1859,165 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7E0DA7-FFE6-48BB-A1D1-8738731F4006}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="26" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="9" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E6" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E7" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1626,110 +2034,309 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F72991C-894B-488D-8F73-5B66A377ED2A}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9" t="s">
+      <c r="B2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="10"/>
+      <c r="I2" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C12" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1746,110 +2353,205 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CEB708-3A94-429E-B69C-8554EA25CCF2}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9" t="s">
+      <c r="B2" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="10"/>
+      <c r="I2" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E6" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E8" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E9" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1866,110 +2568,273 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC3007D-5A7A-430F-826A-355EE56D0B98}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9" t="s">
+      <c r="B2" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="10"/>
+      <c r="I2" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E6" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E7" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E8" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E10" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E12" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E13" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1986,110 +2851,198 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCA48DA-F6F8-4D9E-B5D1-5CDD877C5363}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="43" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="30.21875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="E6" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="E7" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="E8" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/document/Admin_Testcase.xlsx
+++ b/document/Admin_Testcase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Project\HCL\Book-Final\final\bookstore\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A2DF83-6A07-48A9-8C5E-B761E7B92DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{218E82AD-A9AA-4C16-89C9-5BC983EB8F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{65452611-5A25-4815-99BB-0250E95B3767}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{65452611-5A25-4815-99BB-0250E95B3767}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="190">
   <si>
     <t>Test  Cases  Report</t>
   </si>
@@ -522,9 +522,6 @@
     <t>leave Author Name field blank</t>
   </si>
   <si>
-    <t>An error message "Please enter author name"</t>
-  </si>
-  <si>
     <t>Author Name must be unique</t>
   </si>
   <si>
@@ -537,57 +534,24 @@
     <t>leave Author Birth Year field blank</t>
   </si>
   <si>
-    <t>An error message "Please enter author birth year"</t>
-  </si>
-  <si>
     <t>Author Active Status must not be blank</t>
   </si>
   <si>
     <t>leave Author Active Status field blank</t>
   </si>
   <si>
-    <t>An error message "Please enter author active status"</t>
-  </si>
-  <si>
     <t>Description must not be blank</t>
   </si>
   <si>
     <t>leave Description field blank</t>
   </si>
   <si>
-    <t>An error message "Please write some description for this author"</t>
-  </si>
-  <si>
-    <t>author Store</t>
-  </si>
-  <si>
     <t>click Delete button on selected author</t>
   </si>
   <si>
-    <t>An confirm box "Are you sure to delete this author?"</t>
-  </si>
-  <si>
-    <t>A message "Delete author successfully"</t>
-  </si>
-  <si>
-    <t>author is deleted in database</t>
-  </si>
-  <si>
     <t>An error message "This name has been accounted"</t>
   </si>
   <si>
-    <t>Create author successfully</t>
-  </si>
-  <si>
-    <t>An message "Create author successfully"</t>
-  </si>
-  <si>
-    <t>category Store</t>
-  </si>
-  <si>
-    <t>category Management</t>
-  </si>
-  <si>
     <t>An error message "Please enter category name"</t>
   </si>
   <si>
@@ -621,9 +585,6 @@
     <t>publisher Store</t>
   </si>
   <si>
-    <t>publisher Management</t>
-  </si>
-  <si>
     <t>An error message "Please enter publisher name"</t>
   </si>
   <si>
@@ -658,9 +619,6 @@
   </si>
   <si>
     <t>Publisher Name must be unique</t>
-  </si>
-  <si>
-    <t>Publisher Birth Year must not be blank</t>
   </si>
   <si>
     <t>Publisher Active Status must not be blank</t>
@@ -737,6 +695,172 @@
 Book id: 37
 Quantity in stock: 1
 Quantity in order : 3</t>
+  </si>
+  <si>
+    <t>Publisher Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author Name: Macxim
+Author Birth Year: 1980
+Author Active Status: Active
+Description: </t>
+  </si>
+  <si>
+    <t>Author Name: Macxim</t>
+  </si>
+  <si>
+    <t>Category Name: Action</t>
+  </si>
+  <si>
+    <t>Publisher Name:
+Publisher Established Year: 1980
+Publisher Active Status: Active
+Description: This is a description for publisher</t>
+  </si>
+  <si>
+    <t>Publisher Name: Nxb Kim Dong
+Publisher Established Year: 
+Publisher Active Status: Active
+Description: This is a description for publisher</t>
+  </si>
+  <si>
+    <t>Publisher Established Year must not be blank</t>
+  </si>
+  <si>
+    <t>Publisher Name: Nxb Kim Dong
+Publisher Established Year: 1980
+Publisher Active Status: 
+Description: This is a description for publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publisher Name: Nxb Kim Dong
+Publisher Established Year: 1980
+Publisher Active Status: Active
+Description: </t>
+  </si>
+  <si>
+    <t>Publisher Name: Nxb Kim Dong</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Publisher Name: Penguin Books
+Publisher Established Year: 1980
+Publisher Active Status: Active
+Description: This is a description for publisher</t>
+  </si>
+  <si>
+    <t>Edit publisher successfully</t>
+  </si>
+  <si>
+    <t>An message "Edit publisher successfully"</t>
+  </si>
+  <si>
+    <t>click "Submit" in Edit page</t>
+  </si>
+  <si>
+    <t>Publisher Name: Nxb Tre
+Publisher Established Year: 1980
+Publisher Active Status: Active
+Description: This is a description for publisher</t>
+  </si>
+  <si>
+    <t>UserName: 
+Password: 12345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserName: tungnt
+Password: </t>
+  </si>
+  <si>
+    <t>UserName: tung
+Password: Abcd1234.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username: tungnt1
+</t>
+  </si>
+  <si>
+    <t>Category Management</t>
+  </si>
+  <si>
+    <t>Author Established Year must not be blank</t>
+  </si>
+  <si>
+    <t>Author Name: 
+Author Birth Year: 1980
+Author Active Status: Active
+Description: This is an Author</t>
+  </si>
+  <si>
+    <t>An error message "Please enter Author name"</t>
+  </si>
+  <si>
+    <t>Author Name: Jack London
+Author Birth Year: 1980
+Author Active Status: Active
+Description: This is an Author</t>
+  </si>
+  <si>
+    <t>Author Name: Macxim
+Author Birth Year: 
+Author Active Status: Active
+Description: This is an Author</t>
+  </si>
+  <si>
+    <t>An error message "Please enter Author birth year"</t>
+  </si>
+  <si>
+    <t>Author Name: Macxim
+Author Birth Year: 1980
+Author Active Status: 
+Description: This is an Author</t>
+  </si>
+  <si>
+    <t>An error message "Please enter Author active status"</t>
+  </si>
+  <si>
+    <t>An error message "Please write some description for this Author"</t>
+  </si>
+  <si>
+    <t>Create Author successfully</t>
+  </si>
+  <si>
+    <t>An message "Create Author successfully"</t>
+  </si>
+  <si>
+    <t>click Delete button on selected Author</t>
+  </si>
+  <si>
+    <t>An confirm box "Are you sure to delete this Author?"</t>
+  </si>
+  <si>
+    <t>A message "Delete Author successfully"</t>
+  </si>
+  <si>
+    <t>Author is deleted in database</t>
+  </si>
+  <si>
+    <t>Author Name: Nxb Kim Dong
+Author Established Year: 
+Author Active Status: Active
+Description: This is a description for Author</t>
+  </si>
+  <si>
+    <t>Edit Author successfully</t>
+  </si>
+  <si>
+    <t>Author Name: Nxb Tre
+Author Established Year: 1980
+Author Active Status: Active
+Description: This is a description for Author</t>
+  </si>
+  <si>
+    <t>An message "Edit Author successfully"</t>
+  </si>
+  <si>
+    <t>BookStore</t>
   </si>
 </sst>
 </file>
@@ -852,28 +976,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -896,17 +1005,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -920,17 +1035,23 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1249,188 +1370,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F397276D-786C-44E2-9AE1-292F48ABCDC7}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="5"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="6"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="7" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="17"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="7" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="J5" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="J6" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1450,398 +1581,553 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024974DE-9D57-446A-A836-90D372D19428}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="12"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="13" t="s">
+      <c r="B2" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="21"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="13" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="E6" s="1" t="s">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="E7" s="1" t="s">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="E8" s="1" t="s">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="E9" s="1" t="s">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="E10" s="1" t="s">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="E11" s="1" t="s">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="E12" s="1" t="s">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="E13" s="1" t="s">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="E14" s="1" t="s">
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
+      <c r="A15" s="12">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
+      <c r="A16" s="12">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="F16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E17" s="26" t="s">
+      <c r="J16" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="F17" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E18" s="26" t="s">
+      <c r="J17" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1861,162 +2147,174 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7E0DA7-FFE6-48BB-A1D1-8738731F4006}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:J7"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" style="26" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="6"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="17"/>
+      <c r="I2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="24" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E6" s="26" t="s">
+      <c r="B6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E7" s="26" t="s">
+      <c r="B7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2034,308 +2332,519 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F72991C-894B-488D-8F73-5B66A377ED2A}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="12"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="13" t="s">
+      <c r="B2" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="21"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="13" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C6" s="14" t="s">
+      <c r="F6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="14" t="s">
+      <c r="F7" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G14" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C8" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="G15" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E16" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F16" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C9" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="G16" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C10" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C11" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C12" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="26" t="s">
+      <c r="E17" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2355,202 +2864,257 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CEB708-3A94-429E-B69C-8554EA25CCF2}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="12"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="13" t="s">
+      <c r="B2" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="21"/>
+      <c r="I2" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="13" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="E5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E6" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="14" t="s">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="D7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="26" t="s">
+      <c r="F7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E8" s="26" t="s">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E9" s="26" t="s">
+      <c r="F8" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="J9" s="26" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2568,272 +3132,549 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC3007D-5A7A-430F-826A-355EE56D0B98}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="12"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="21" t="s">
+      <c r="F6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="F8" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="B9" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="B10" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="B11" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
         <v>8</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="B12" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
         <v>9</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="B13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="B14" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
         <v>11</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="B15" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>12</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="B16" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="B17" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E6" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E7" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E8" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E10" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C11" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E12" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E13" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="J13" s="26" t="s">
+      <c r="E17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2853,195 +3694,234 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCA48DA-F6F8-4D9E-B5D1-5CDD877C5363}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="43" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="30.21875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="43" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="30.21875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="12"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="13" t="s">
+      <c r="B2" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="21"/>
+      <c r="I2" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="13" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="H5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="E6" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="E7" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="E8" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J8" s="14" t="s">
+      <c r="H6" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>17</v>
       </c>
     </row>

--- a/document/Admin_Testcase.xlsx
+++ b/document/Admin_Testcase.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Project\HCL\Book-Final\final\bookstore\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{218E82AD-A9AA-4C16-89C9-5BC983EB8F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28649EC6-6CE9-4CA1-A7C8-A8776EFA87B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{65452611-5A25-4815-99BB-0250E95B3767}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{65452611-5A25-4815-99BB-0250E95B3767}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="User" sheetId="2" r:id="rId2"/>
-    <sheet name="Book" sheetId="3" r:id="rId3"/>
+    <sheet name="Book" sheetId="3" r:id="rId2"/>
+    <sheet name="User" sheetId="2" r:id="rId3"/>
     <sheet name="Author" sheetId="4" r:id="rId4"/>
     <sheet name="Category" sheetId="5" r:id="rId5"/>
     <sheet name="Publisher" sheetId="6" r:id="rId6"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="287">
   <si>
     <t>Test  Cases  Report</t>
   </si>
@@ -253,9 +253,6 @@
     <t>enter user account</t>
   </si>
   <si>
-    <t>An error message "Please input your admin account"</t>
-  </si>
-  <si>
     <t>Admin Login Details</t>
   </si>
   <si>
@@ -760,12 +757,6 @@
     <t>click "Submit" in Edit page</t>
   </si>
   <si>
-    <t>Publisher Name: Nxb Tre
-Publisher Established Year: 1980
-Publisher Active Status: Active
-Description: This is a description for publisher</t>
-  </si>
-  <si>
     <t>UserName: 
 Password: 12345678</t>
   </si>
@@ -783,9 +774,6 @@
   </si>
   <si>
     <t>Category Management</t>
-  </si>
-  <si>
-    <t>Author Established Year must not be blank</t>
   </si>
   <si>
     <t>Author Name: 
@@ -842,25 +830,575 @@
     <t>Author is deleted in database</t>
   </si>
   <si>
-    <t>Author Name: Nxb Kim Dong
-Author Established Year: 
+    <t>Edit Author successfully</t>
+  </si>
+  <si>
+    <t>An message "Edit Author successfully"</t>
+  </si>
+  <si>
+    <t>BookStore</t>
+  </si>
+  <si>
+    <t>Edit category successfully</t>
+  </si>
+  <si>
+    <t>Category Name: Action1</t>
+  </si>
+  <si>
+    <t>An message "Edit category successfully"</t>
+  </si>
+  <si>
+    <t>Publisher Established Year can only contain 4 digit</t>
+  </si>
+  <si>
+    <t>enter an 5 digits est ablished year</t>
+  </si>
+  <si>
+    <t>Publisher Name: Nxb Kim Dong
+Publisher Established Year: 16666
+Publisher Active Status: Active
+Description: This is a description for publisher</t>
+  </si>
+  <si>
+    <t>An error message "Established Year must be less than 5 digits"</t>
+  </si>
+  <si>
+    <t>Publisher Established Year can only contain digits</t>
+  </si>
+  <si>
+    <t>enter a letter into Publisher Established Year field</t>
+  </si>
+  <si>
+    <t>Publisher Name: Nxb Kim Dong
+Publisher Established Year: abc
+Publisher Active Status: Active
+Description: This is a description for publisher</t>
+  </si>
+  <si>
+    <t>An error message " The value 'sad' is not valid for birth_year. "</t>
+  </si>
+  <si>
+    <t>An error message "Publisher Established Year can only contain digits"</t>
+  </si>
+  <si>
+    <t>An error message "Please enter publisher established year"</t>
+  </si>
+  <si>
+    <t>Author Name: Macxim
+Author Birth Year: 1920
+Author Active Status: 
+Description: This is an Author</t>
+  </si>
+  <si>
+    <t>Author Name: Nxb Tre
+Author Established Year: 1920
 Author Active Status: Active
 Description: This is a description for Author</t>
   </si>
   <si>
-    <t>Edit Author successfully</t>
+    <t>Author Birth Year can only contain 4 digit</t>
+  </si>
+  <si>
+    <t>Author Birth Year can only contain digits</t>
+  </si>
+  <si>
+    <t>enter an 5 digits into birth year field</t>
+  </si>
+  <si>
+    <t>enter a letter into birth year field</t>
   </si>
   <si>
     <t>Author Name: Nxb Tre
-Author Established Year: 1980
+Author Established Year: 19221
 Author Active Status: Active
 Description: This is a description for Author</t>
   </si>
   <si>
-    <t>An message "Edit Author successfully"</t>
-  </si>
-  <si>
-    <t>BookStore</t>
+    <t>Author Name: Nxb Tre
+Author Established Year: abc
+Author Active Status: Active
+Description: This is a description for Author</t>
+  </si>
+  <si>
+    <t>An error message " The value 'sad' is not valid for est_year. "</t>
+  </si>
+  <si>
+    <t>Email must be unique</t>
+  </si>
+  <si>
+    <t>input an existing email</t>
+  </si>
+  <si>
+    <t>Existing email: tungnt@gmail.com
+Input email: tungnt@gmail.com</t>
+  </si>
+  <si>
+    <t>An error message "The email is already accounted"</t>
+  </si>
+  <si>
+    <t>Book Title field cannot be blank</t>
+  </si>
+  <si>
+    <t>Edition field cannot be blank</t>
+  </si>
+  <si>
+    <t>Author field cannot be blank</t>
+  </si>
+  <si>
+    <t>Publisher field cannot be blank</t>
+  </si>
+  <si>
+    <t>Category field cannot be blank</t>
+  </si>
+  <si>
+    <t>Quantity in stock field cannot be blank</t>
+  </si>
+  <si>
+    <t>Quantity in stock field must be greater than 0</t>
+  </si>
+  <si>
+    <t>Public Date field cannot be blank</t>
+  </si>
+  <si>
+    <t>Price field cannot be blank</t>
+  </si>
+  <si>
+    <t>Price field must be greater than 0</t>
+  </si>
+  <si>
+    <t>Description field cannot be blank</t>
+  </si>
+  <si>
+    <t>leave Title field blank</t>
+  </si>
+  <si>
+    <t>leave Edition field blank</t>
+  </si>
+  <si>
+    <t>leave Author field blank</t>
+  </si>
+  <si>
+    <t>leave Publisher field blank</t>
+  </si>
+  <si>
+    <t>leave Category field blank</t>
+  </si>
+  <si>
+    <t>leave Quantity in stock field blank</t>
+  </si>
+  <si>
+    <t>enter 0 in Quantity in stock field</t>
+  </si>
+  <si>
+    <t>leave Public Date field blank</t>
+  </si>
+  <si>
+    <t>leave Price field blank</t>
+  </si>
+  <si>
+    <t>enter 0 into Price field</t>
+  </si>
+  <si>
+    <t>enter -4 in Quantity in stock field</t>
+  </si>
+  <si>
+    <t>enter -4 into Price field</t>
+  </si>
+  <si>
+    <t>An error message "Please enter book title"</t>
+  </si>
+  <si>
+    <t>An error message "Please enter book edition"</t>
+  </si>
+  <si>
+    <t>An error message "Please enter book price"</t>
+  </si>
+  <si>
+    <t>An error message "Please choose author"</t>
+  </si>
+  <si>
+    <t>An error message "Please choose publisher"</t>
+  </si>
+  <si>
+    <t>An error message "Please choose category"</t>
+  </si>
+  <si>
+    <t>An error message "Please enter book quantity in stock"</t>
+  </si>
+  <si>
+    <t>An error message "Quantity in stock must be greater than 0"</t>
+  </si>
+  <si>
+    <t>An error message "Please enter public date for this book"</t>
+  </si>
+  <si>
+    <t>An error message "Please write some description for this book"</t>
+  </si>
+  <si>
+    <t>Book title: Book1
+Edition: Special
+Author: Jojo Moyes
+Publisher: Doubleday
+Category: Romance
+Quantity in stock: 15
+Public Date: 04/11/2021
+Price: 15
+Description: demo</t>
+  </si>
+  <si>
+    <t>Book title: 
+Edition: Special
+Author: Jojo Moyes
+Publisher: Doubleday
+Category: Romance
+Quantity in stock: 15
+Public Date: 04/11/2021
+Price: 15
+Description: demo</t>
+  </si>
+  <si>
+    <t>Book title: Book1
+Edition:
+Author: Jojo Moyes
+Publisher: Doubleday
+Category: Romance
+Quantity in stock: 15
+Public Date: 04/11/2021
+Price: 15
+Description: demo</t>
+  </si>
+  <si>
+    <t>Book title: Book1
+Edition: Special
+Author: 
+Publisher: Doubleday
+Category: Romance
+Quantity in stock: 15
+Public Date: 04/11/2021
+Price: 15
+Description: demo</t>
+  </si>
+  <si>
+    <t>Book title: Book1
+Edition: Special
+Author: Jojo Moyes
+Publisher: 
+Category: Romance
+Quantity in stock: 15
+Public Date: 04/11/2021
+Price: 15
+Description: demo</t>
+  </si>
+  <si>
+    <t>Book title: Book1
+Edition: Special
+Author: Jojo Moyes
+Publisher: Doubleday
+Category: 
+Quantity in stock: 15
+Public Date: 04/11/2021
+Price: 15
+Description: demo</t>
+  </si>
+  <si>
+    <t>Book title: Book1
+Edition: Special
+Author: Jojo Moyes
+Publisher: Doubleday
+Category: Romance
+Quantity in stock: 
+Public Date: 04/11/2021
+Price: 15
+Description: demo</t>
+  </si>
+  <si>
+    <t>Book title: Book1
+Edition: Special
+Author: Jojo Moyes
+Publisher: Doubleday
+Category: Romance
+Quantity in stock: -4
+Public Date: 04/11/2021
+Price: 15
+Description: demo</t>
+  </si>
+  <si>
+    <t>Book title: Book1
+Edition: Special
+Author: Jojo Moyes
+Publisher: Doubleday
+Category: Romance
+Quantity in stock: 0
+Public Date: 04/11/2021
+Price: 15
+Description: demo</t>
+  </si>
+  <si>
+    <t>Book title: Book1
+Edition: Special
+Author: Jojo Moyes
+Publisher: Doubleday
+Category: Romance
+Quantity in stock: 15
+Public Date: 
+Price: 15
+Description: demo</t>
+  </si>
+  <si>
+    <t>Book title: Book1
+Edition: Special
+Author: Jojo Moyes
+Publisher: Doubleday
+Category: Romance
+Quantity in stock: 15
+Public Date: 04/11/2021
+Price: 
+Description: demo</t>
+  </si>
+  <si>
+    <t>Book title: Book1
+Edition: Special
+Author: Jojo Moyes
+Publisher: Doubleday
+Category: Romance
+Quantity in stock: 15
+Public Date: 04/11/2021
+Price: -4
+Description: demo</t>
+  </si>
+  <si>
+    <t>Book title: Book1
+Edition: Special
+Author: Jojo Moyes
+Publisher: Doubleday
+Category: Romance
+Quantity in stock: 15
+Public Date: 04/11/2021
+Price: 0
+Description: demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book title: Book1
+Edition: Special
+Author: Jojo Moyes
+Publisher: Doubleday
+Category: Romance
+Quantity in stock: 15
+Public Date: 04/11/2021
+Price: 15
+Description: </t>
+  </si>
+  <si>
+    <t>Create new book</t>
+  </si>
+  <si>
+    <t>click Submit after fill all fields</t>
+  </si>
+  <si>
+    <t>A message "Create new book successfully" is displayed</t>
+  </si>
+  <si>
+    <t>Book title: Book1</t>
+  </si>
+  <si>
+    <t>Book title:
+Edition: Deluxe
+Author: Jack London
+Publisher: Penguin Books
+Category: History
+Quantity in stock: 20
+Public Date: 04/10/2021
+Price: 20
+Description: demoabc</t>
+  </si>
+  <si>
+    <t>Book title: Book2
+Edition:
+Author: Jack London
+Publisher: Penguin Books
+Category: History
+Quantity in stock: 20
+Public Date: 04/10/2021
+Price: 20
+Description: demoabc</t>
+  </si>
+  <si>
+    <t>Book title: Book2
+Edition: Deluxe
+Author: 
+Publisher: Penguin Books
+Category: History
+Quantity in stock: 20
+Public Date: 04/10/2021
+Price: 20
+Description: demoabc</t>
+  </si>
+  <si>
+    <t>Book title: Book2
+Edition: Deluxe
+Author: Jack London
+Publisher: 
+Category: History
+Quantity in stock: 20
+Public Date: 04/10/2021
+Price: 20
+Description: demoabc</t>
+  </si>
+  <si>
+    <t>Book title: Book2
+Edition: Deluxe
+Author: Jack London
+Publisher: Penguin Books
+Category:
+Quantity in stock: 20
+Public Date: 04/10/2021
+Price: 20
+Description: demoabc</t>
+  </si>
+  <si>
+    <t>Book title: Book2
+Edition: Deluxe
+Author: Jack London
+Publisher: Penguin Books
+Category: History
+Quantity in stock:
+Public Date: 04/10/2021
+Price: 20
+Description: demoabc</t>
+  </si>
+  <si>
+    <t>Book title: Book2
+Edition: Deluxe
+Author: Jack London
+Publisher: Penguin Books
+Category: History
+Quantity in stock: -4
+Public Date: 04/10/2021
+Price: 20
+Description: demoabc</t>
+  </si>
+  <si>
+    <t>Book title: Book2
+Edition: Deluxe
+Author: Jack London
+Publisher: Penguin Books
+Category: History
+Quantity in stock: 0
+Public Date: 04/10/2021
+Price: 20
+Description: demoabc</t>
+  </si>
+  <si>
+    <t>Book title: Book2
+Edition: Deluxe
+Author: Jack London
+Publisher: Penguin Books
+Category: History
+Quantity in stock: 20
+Public Date: 
+Price: 20
+Description: demoabc</t>
+  </si>
+  <si>
+    <t>Book title: Book2
+Edition: Deluxe
+Author: Jack London
+Publisher: Penguin Books
+Category: History
+Quantity in stock: 20
+Public Date: 04/10/2021
+Price: 
+Description: demoabc</t>
+  </si>
+  <si>
+    <t>Book title: Book2
+Edition: Deluxe
+Author: Jack London
+Publisher: Penguin Books
+Category: History
+Quantity in stock: 20
+Public Date: 04/10/2021
+Price: -4
+Description: demoabc</t>
+  </si>
+  <si>
+    <t>Book title: Book2
+Edition: Deluxe
+Author: Jack London
+Publisher: Penguin Books
+Category: History
+Quantity in stock: 20
+Public Date: 04/10/2021
+Price: 0
+Description: demoabc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book title: Book2
+Edition: Deluxe
+Author: Jack London
+Publisher: Penguin Books
+Category: History
+Quantity in stock: 20
+Public Date: 04/10/2021
+Price: 20
+Description: </t>
+  </si>
+  <si>
+    <t>Edit new book</t>
+  </si>
+  <si>
+    <t>A message "Edit new book successfully" is displayed</t>
+  </si>
+  <si>
+    <t>id: 40
+Book title: Book2
+Edition: Deluxe
+Author: Jack London
+Publisher: Penguin Books
+Category: History
+Quantity in stock: 20
+Public Date: 04/10/2021
+Price: 20
+Description: demoabc</t>
+  </si>
+  <si>
+    <t>Category Name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category Name: </t>
+  </si>
+  <si>
+    <t>delete data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click Submit </t>
+  </si>
+  <si>
+    <t>Publisher Name:
+Publisher Established Year: 200
+Publisher Active Status: Active
+Description: This is a description for publisher</t>
+  </si>
+  <si>
+    <t>Publisher Name: Nxb Kim Dong
+Publisher Established Year: 2000
+Publisher Active Status: 
+Description: This is a description for publisher</t>
+  </si>
+  <si>
+    <t>Publisher Name: Nxb Kim Dong
+Publisher Established Year: 2000
+Publisher Active Status: Active
+Description: This is a description for publisher</t>
+  </si>
+  <si>
+    <t>Publisher Name: Nxb Tre
+Publisher Established Year: 2000
+Publisher Active Status: Active
+Description: This is a description for publisher</t>
+  </si>
+  <si>
+    <t>An error message "Wrong UserName and Password"</t>
   </si>
 </sst>
 </file>
@@ -976,7 +1514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1017,22 +1555,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1047,11 +1573,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1370,41 +1917,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F397276D-786C-44E2-9AE1-292F48ABCDC7}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" style="25" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="11.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="20"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
@@ -1415,16 +1962,16 @@
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -1435,7 +1982,7 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="23" t="s">
@@ -1475,7 +2022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="12" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -1495,7 +2042,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>24</v>
@@ -1508,6 +2055,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
       <c r="B6" s="12" t="s">
         <v>22</v>
       </c>
@@ -1524,7 +2074,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>26</v>
@@ -1536,7 +2086,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="12" customFormat="1" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>3</v>
+      </c>
       <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
@@ -1553,13 +2106,13 @@
         <v>28</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>29</v>
+        <v>286</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>286</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>17</v>
@@ -1578,81 +2131,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024974DE-9D57-446A-A836-90D372D19428}">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7E0DA7-FFE6-48BB-A1D1-8738731F4006}">
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.21875" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.77734375" style="12" customWidth="1"/>
     <col min="8" max="8" width="33.44140625" style="12" customWidth="1"/>
     <col min="9" max="9" width="29.109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="21"/>
+    <col min="10" max="10" width="11.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="18"/>
+      <c r="I2" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1686,448 +2239,991 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+    <row r="5" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>31</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>4</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>5</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>6</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>9</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>10</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>11</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>12</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>13</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>14</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="H18" s="12" t="s">
+      <c r="B35" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="12" t="s">
+      <c r="C35" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2144,81 +3240,81 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7E0DA7-FFE6-48BB-A1D1-8738731F4006}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024974DE-9D57-446A-A836-90D372D19428}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="14.21875" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.109375" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" style="12" customWidth="1"/>
     <col min="8" max="8" width="33.44140625" style="12" customWidth="1"/>
     <col min="9" max="9" width="29.109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="21"/>
+    <col min="10" max="10" width="11.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="10"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="23"/>
+      <c r="I2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -2248,73 +3344,484 @@
       <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
       <c r="B5" s="12" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>12</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="F17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="F18" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="12" t="s">
+      <c r="G19" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2332,16 +3839,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F72991C-894B-488D-8F73-5B66A377ED2A}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="14.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.109375" style="9" customWidth="1"/>
@@ -2354,57 +3861,57 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="18"/>
+      <c r="I2" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -2443,28 +3950,28 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>17</v>
@@ -2475,28 +3982,28 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>92</v>
-      </c>
       <c r="E6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="G6" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>17</v>
@@ -2507,28 +4014,28 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>92</v>
-      </c>
       <c r="E7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>17</v>
@@ -2539,28 +4046,28 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>92</v>
-      </c>
       <c r="E8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="G8" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>17</v>
@@ -2571,28 +4078,28 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>92</v>
-      </c>
       <c r="E9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>102</v>
-      </c>
       <c r="G9" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>17</v>
@@ -2603,24 +4110,24 @@
         <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>92</v>
-      </c>
       <c r="E10" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>17</v>
@@ -2631,28 +4138,28 @@
         <v>7</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="F11" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>17</v>
@@ -2663,28 +4170,28 @@
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="F12" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>17</v>
@@ -2695,156 +4202,278 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
         <v>10</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B15" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="E15" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>11</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="12" t="s">
+      <c r="F16" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>12</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I17" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>11</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="J17" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>13</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>12</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="E18" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>13</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="E19" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="J17" s="12" t="s">
+      <c r="E20" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>6</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2857,15 +4486,16 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CEB708-3A94-429E-B69C-8554EA25CCF2}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2874,69 +4504,69 @@
     <col min="2" max="2" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" style="9" customWidth="1"/>
     <col min="7" max="7" width="21.109375" style="9" customWidth="1"/>
     <col min="8" max="8" width="33.44140625" style="9" customWidth="1"/>
     <col min="9" max="9" width="29.109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="7"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="J2" s="18"/>
+      <c r="I2" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -2973,30 +4603,30 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>111</v>
+        <v>91</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>152</v>
+        <v>278</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3005,24 +4635,27 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="I6" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3031,30 +4664,30 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>85</v>
-      </c>
       <c r="F7" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>109</v>
-      </c>
       <c r="I7" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="J7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3063,30 +4696,30 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>85</v>
-      </c>
       <c r="F8" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3095,26 +4728,87 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3132,10 +4826,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC3007D-5A7A-430F-826A-355EE56D0B98}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3154,57 +4848,57 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="J2" s="18"/>
+      <c r="I2" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -3243,28 +4937,28 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>17</v>
@@ -3275,406 +4969,530 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="F18" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>17</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>18</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>16</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>4</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>5</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>6</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>9</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>10</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>11</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>12</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>13</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>14</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="F22" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="J18" s="12" t="s">
+      <c r="I22" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3713,57 +5531,57 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J2" s="18"/>
+      <c r="I2" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -3802,28 +5620,28 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>17</v>
@@ -3834,28 +5652,28 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="E6" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>140</v>
-      </c>
       <c r="I6" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>17</v>
@@ -3866,28 +5684,28 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="I7" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>17</v>
@@ -3898,28 +5716,28 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="E8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="I8" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>17</v>
